--- a/Code/Results/Cases/Case_7_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.736267062251216</v>
+        <v>3.639297129245051</v>
       </c>
       <c r="C2">
-        <v>1.041696738485371</v>
+        <v>0.9954155328274794</v>
       </c>
       <c r="D2">
-        <v>0.0178428862215334</v>
+        <v>0.03898913623710598</v>
       </c>
       <c r="E2">
-        <v>1.467511952820317</v>
+        <v>1.441922359377998</v>
       </c>
       <c r="F2">
-        <v>2.06182011944513</v>
+        <v>0.4605004832323445</v>
       </c>
       <c r="G2">
-        <v>0.0007571769031520029</v>
+        <v>0.0007686809951868507</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.635251967930898</v>
+        <v>1.208600237614888</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.215645030492396</v>
+        <v>3.163926660293214</v>
       </c>
       <c r="C3">
-        <v>0.8999073733372711</v>
+        <v>0.8738301893889968</v>
       </c>
       <c r="D3">
-        <v>0.01789610815375653</v>
+        <v>0.03462429524202548</v>
       </c>
       <c r="E3">
-        <v>1.248792227394887</v>
+        <v>1.235854890260796</v>
       </c>
       <c r="F3">
-        <v>1.807740511052174</v>
+        <v>0.4140919297068777</v>
       </c>
       <c r="G3">
-        <v>0.0007670812503010607</v>
+        <v>0.0007740569087990035</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.4374335222805</v>
+        <v>1.104349497267947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.901371602009476</v>
+        <v>2.873012578389364</v>
       </c>
       <c r="C4">
-        <v>0.8142165763509013</v>
+        <v>0.7993378641015738</v>
       </c>
       <c r="D4">
-        <v>0.01807328356151316</v>
+        <v>0.03195374705863685</v>
       </c>
       <c r="E4">
-        <v>1.118867726201344</v>
+        <v>1.112018506115746</v>
       </c>
       <c r="F4">
-        <v>1.658307730217572</v>
+        <v>0.3874158420567042</v>
       </c>
       <c r="G4">
-        <v>0.0007732699565429203</v>
+        <v>0.0007774440430512226</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.321461508305205</v>
+        <v>1.0464774109318</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.774424022443554</v>
+        <v>2.754637414378806</v>
       </c>
       <c r="C5">
-        <v>0.7795744691919424</v>
+        <v>0.7690066449737571</v>
       </c>
       <c r="D5">
-        <v>0.01817729564609394</v>
+        <v>0.03086722398403907</v>
       </c>
       <c r="E5">
-        <v>1.066833558129545</v>
+        <v>1.062125557461087</v>
       </c>
       <c r="F5">
-        <v>1.598851742730304</v>
+        <v>0.3769626004365563</v>
       </c>
       <c r="G5">
-        <v>0.0007758222432976725</v>
+        <v>0.0007788469445050105</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.275404661415436</v>
+        <v>1.024306193568918</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.753405865620721</v>
+        <v>2.734989976010297</v>
       </c>
       <c r="C6">
-        <v>0.773837145209427</v>
+        <v>0.7639712490242232</v>
       </c>
       <c r="D6">
-        <v>0.01819636722417428</v>
+        <v>0.03068689589297691</v>
       </c>
       <c r="E6">
-        <v>1.0582433282826</v>
+        <v>1.05387249602056</v>
       </c>
       <c r="F6">
-        <v>1.58906023935387</v>
+        <v>0.3752509494558538</v>
       </c>
       <c r="G6">
-        <v>0.0007762479713513404</v>
+        <v>0.0007790812866859769</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.26782478060764</v>
+        <v>1.020706307984739</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.89965529196968</v>
+        <v>2.871415508127086</v>
       </c>
       <c r="C7">
-        <v>0.8137483389500062</v>
+        <v>0.7989287250678103</v>
       </c>
       <c r="D7">
-        <v>0.01807456304021571</v>
+        <v>0.03193908754555963</v>
       </c>
       <c r="E7">
-        <v>1.118162516374923</v>
+        <v>1.111343450545817</v>
       </c>
       <c r="F7">
-        <v>1.657500324328112</v>
+        <v>0.3872732262943899</v>
       </c>
       <c r="G7">
-        <v>0.0007733042506362193</v>
+        <v>0.0007774628703091108</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.320835720129395</v>
+        <v>1.046172851185815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.555487836088275</v>
+        <v>3.475146169237291</v>
       </c>
       <c r="C8">
-        <v>0.9924810266659279</v>
+        <v>0.9534495003954078</v>
       </c>
       <c r="D8">
-        <v>0.01782832302820481</v>
+        <v>0.03748176335503928</v>
       </c>
       <c r="E8">
-        <v>1.391068966080269</v>
+        <v>1.370245579812007</v>
       </c>
       <c r="F8">
-        <v>1.972712557355678</v>
+        <v>0.4440963412042862</v>
       </c>
       <c r="G8">
-        <v>0.0007605717638276665</v>
+        <v>0.0007705172717569716</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.565791255064426</v>
+        <v>1.171298389780702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.896635246564301</v>
+        <v>4.670153159864242</v>
       </c>
       <c r="C9">
-        <v>1.357350040405436</v>
+        <v>1.258541205769177</v>
       </c>
       <c r="D9">
-        <v>0.01873487671074514</v>
+        <v>0.04845951825788575</v>
       </c>
       <c r="E9">
-        <v>1.971007306287461</v>
+        <v>1.904628270821078</v>
       </c>
       <c r="F9">
-        <v>2.654165242247444</v>
+        <v>0.5719243957679723</v>
       </c>
       <c r="G9">
-        <v>0.0007362809840958158</v>
+        <v>0.0007575363395386711</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.098993126469821</v>
+        <v>1.47185203281046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.936010570894325</v>
+        <v>5.560268806891031</v>
       </c>
       <c r="C10">
-        <v>1.640091340127981</v>
+        <v>1.485214488906252</v>
       </c>
       <c r="D10">
-        <v>0.02066555426238281</v>
+        <v>0.05664530721050909</v>
       </c>
       <c r="E10">
-        <v>2.441744227921319</v>
+        <v>2.322005527160314</v>
       </c>
       <c r="F10">
-        <v>3.21197548122791</v>
+        <v>0.678858643079522</v>
       </c>
       <c r="G10">
-        <v>0.0007185567662624473</v>
+        <v>0.0007483187425689126</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.538400195256955</v>
+        <v>1.736287612921245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.426375668794549</v>
+        <v>5.969211083351581</v>
       </c>
       <c r="C11">
-        <v>1.773596749609567</v>
+        <v>1.58920392041847</v>
       </c>
       <c r="D11">
-        <v>0.02194256434547626</v>
+        <v>0.06040982474318923</v>
       </c>
       <c r="E11">
-        <v>2.67075096489144</v>
+        <v>2.519515414215093</v>
       </c>
       <c r="F11">
-        <v>3.483397292664279</v>
+        <v>0.7310970168232984</v>
       </c>
       <c r="G11">
-        <v>0.0007104373922397349</v>
+        <v>0.0007441769524360651</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.753031412330941</v>
+        <v>1.868589470172623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.615197901076215</v>
+        <v>6.124773827319018</v>
       </c>
       <c r="C12">
-        <v>1.825034563560791</v>
+        <v>1.628738126228541</v>
       </c>
       <c r="D12">
-        <v>0.02249715410546926</v>
+        <v>0.06184261659727497</v>
       </c>
       <c r="E12">
-        <v>2.760176568876631</v>
+        <v>2.59562948098278</v>
       </c>
       <c r="F12">
-        <v>3.589273758047256</v>
+        <v>0.75146764550135</v>
       </c>
       <c r="G12">
-        <v>0.0007073458931555078</v>
+        <v>0.0007426142563991545</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.836891029821075</v>
+        <v>1.920657000486727</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.574381247951806</v>
+        <v>6.091237065251903</v>
       </c>
       <c r="C13">
-        <v>1.813913965820689</v>
+        <v>1.620216287773133</v>
       </c>
       <c r="D13">
-        <v>0.0223742992240048</v>
+        <v>0.06153369239733308</v>
       </c>
       <c r="E13">
-        <v>2.740786183686026</v>
+        <v>2.579174270918713</v>
       </c>
       <c r="F13">
-        <v>3.566323577595881</v>
+        <v>0.747053019755711</v>
       </c>
       <c r="G13">
-        <v>0.0007080126136885718</v>
+        <v>0.0007429505858455573</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.818706965903132</v>
+        <v>1.909351657525747</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.44184346599684</v>
+        <v>5.98199441198517</v>
       </c>
       <c r="C14">
-        <v>1.777809712363648</v>
+        <v>1.592453118870594</v>
       </c>
       <c r="D14">
-        <v>0.021986676736649</v>
+        <v>0.06052754737640242</v>
       </c>
       <c r="E14">
-        <v>2.678050056840803</v>
+        <v>2.525749484437711</v>
       </c>
       <c r="F14">
-        <v>3.492042178137496</v>
+        <v>0.7327606687664314</v>
       </c>
       <c r="G14">
-        <v>0.0007101834480177649</v>
+        <v>0.0007440482843729558</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.759875795252626</v>
+        <v>1.872832176201626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.361088378353315</v>
+        <v>5.915175981731011</v>
       </c>
       <c r="C15">
-        <v>1.755815733896384</v>
+        <v>1.575468599796352</v>
       </c>
       <c r="D15">
-        <v>0.02175895978502851</v>
+        <v>0.05991224352290203</v>
       </c>
       <c r="E15">
-        <v>2.639994076968435</v>
+        <v>2.493204529720103</v>
       </c>
       <c r="F15">
-        <v>3.446964226669451</v>
+        <v>0.7240852042093451</v>
       </c>
       <c r="G15">
-        <v>0.0007115106571407124</v>
+        <v>0.000744721346750212</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.724191939522882</v>
+        <v>1.850726843422706</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.904366273589972</v>
+        <v>5.533634919427698</v>
       </c>
       <c r="C16">
-        <v>1.631479222214296</v>
+        <v>1.478438606472082</v>
       </c>
       <c r="D16">
-        <v>0.02059121580505874</v>
+        <v>0.05640022152640967</v>
       </c>
       <c r="E16">
-        <v>2.427122620471124</v>
+        <v>2.309269822762218</v>
       </c>
       <c r="F16">
-        <v>3.194637710675892</v>
+        <v>0.6755230432628565</v>
       </c>
       <c r="G16">
-        <v>0.0007190855446045563</v>
+        <v>0.0007485903130272879</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.524707585417644</v>
+        <v>1.727902952230664</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.629070492641347</v>
+        <v>5.300687919728375</v>
       </c>
       <c r="C17">
-        <v>1.556569918973196</v>
+        <v>1.419157990854501</v>
       </c>
       <c r="D17">
-        <v>0.01998568847437809</v>
+        <v>0.05425707574407568</v>
       </c>
       <c r="E17">
-        <v>2.300702095041942</v>
+        <v>2.198537140315693</v>
       </c>
       <c r="F17">
-        <v>3.044728077442386</v>
+        <v>0.6467009445062075</v>
       </c>
       <c r="G17">
-        <v>0.0007237123693545235</v>
+        <v>0.0007509758215054918</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.406406138672381</v>
+        <v>1.655792619796131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.472336362745068</v>
+        <v>5.167073336104124</v>
       </c>
       <c r="C18">
-        <v>1.513931089611447</v>
+        <v>1.385141676507715</v>
       </c>
       <c r="D18">
-        <v>0.01967394855126514</v>
+        <v>0.05302813720697941</v>
       </c>
       <c r="E18">
-        <v>2.22934655828999</v>
+        <v>2.135550865997402</v>
       </c>
       <c r="F18">
-        <v>2.960128147816533</v>
+        <v>0.630456663852371</v>
       </c>
       <c r="G18">
-        <v>0.0007263688947433876</v>
+        <v>0.0007523528468003891</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.339717123906965</v>
+        <v>1.615430967274676</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.419528668169335</v>
+        <v>5.121893730647571</v>
       </c>
       <c r="C19">
-        <v>1.499566235896168</v>
+        <v>1.373637281602214</v>
       </c>
       <c r="D19">
-        <v>0.01957431111154762</v>
+        <v>0.05261264338034977</v>
       </c>
       <c r="E19">
-        <v>2.205404981815022</v>
+        <v>2.114339516159731</v>
       </c>
       <c r="F19">
-        <v>2.931747987866544</v>
+        <v>0.625011828509713</v>
       </c>
       <c r="G19">
-        <v>0.0007272677774152544</v>
+        <v>0.000752819980718879</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.317357506786934</v>
+        <v>1.601949714868738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.658205700527674</v>
+        <v>5.325446324771519</v>
       </c>
       <c r="C20">
-        <v>1.564496699704989</v>
+        <v>1.425459995105768</v>
       </c>
       <c r="D20">
-        <v>0.02004627729343511</v>
+        <v>0.05448482054286785</v>
       </c>
       <c r="E20">
-        <v>2.314015537008444</v>
+        <v>2.210250434711114</v>
       </c>
       <c r="F20">
-        <v>3.060514481841437</v>
+        <v>0.649734100568125</v>
       </c>
       <c r="G20">
-        <v>0.0007232203798077689</v>
+        <v>0.0007507213798153807</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.418856263544654</v>
+        <v>1.66335190917593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.480682523975076</v>
+        <v>6.014061404798383</v>
       </c>
       <c r="C21">
-        <v>1.788388826678784</v>
+        <v>1.600603352844814</v>
       </c>
       <c r="D21">
-        <v>0.02209847716198965</v>
+        <v>0.06082286766924483</v>
       </c>
       <c r="E21">
-        <v>2.696398485106386</v>
+        <v>2.541403832657394</v>
       </c>
       <c r="F21">
-        <v>3.513771408818428</v>
+        <v>0.7369420707503878</v>
       </c>
       <c r="G21">
-        <v>0.0007095463586167842</v>
+        <v>0.0007437257231597272</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.77708161611416</v>
+        <v>1.883503363258598</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.036858516260224</v>
+        <v>6.468291637405741</v>
       </c>
       <c r="C22">
-        <v>1.939973107818844</v>
+        <v>1.71599369753892</v>
       </c>
       <c r="D22">
-        <v>0.02386273649438664</v>
+        <v>0.06500821190233097</v>
       </c>
       <c r="E22">
-        <v>2.962459056302379</v>
+        <v>2.76566328394901</v>
       </c>
       <c r="F22">
-        <v>3.828393183286494</v>
+        <v>0.7974113547351038</v>
       </c>
       <c r="G22">
-        <v>0.0007005056637822963</v>
+        <v>0.0007391860033660567</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.026556590291719</v>
+        <v>2.038988414660309</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.7380735867319</v>
+        <v>6.225432000269564</v>
       </c>
       <c r="C23">
-        <v>1.858517861074233</v>
+        <v>1.65431225827507</v>
       </c>
       <c r="D23">
-        <v>0.02287691950746762</v>
+        <v>0.06276995956054066</v>
       </c>
       <c r="E23">
-        <v>2.818750938612908</v>
+        <v>2.645172295040652</v>
       </c>
       <c r="F23">
-        <v>3.658573950291697</v>
+        <v>0.7647936384224892</v>
       </c>
       <c r="G23">
-        <v>0.0007053437984808785</v>
+        <v>0.0007416065873034522</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.891820564103227</v>
+        <v>1.954853820018513</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.645028929489229</v>
+        <v>5.314252094415224</v>
       </c>
       <c r="C24">
-        <v>1.560911683496158</v>
+        <v>1.422610659040743</v>
       </c>
       <c r="D24">
-        <v>0.02001877273859165</v>
+        <v>0.05438184730274997</v>
       </c>
       <c r="E24">
-        <v>2.30799244268718</v>
+        <v>2.204952766859634</v>
       </c>
       <c r="F24">
-        <v>3.053372551285491</v>
+        <v>0.6483618008776091</v>
       </c>
       <c r="G24">
-        <v>0.0007234428185273706</v>
+        <v>0.0007508363954646768</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.413223471517526</v>
+        <v>1.659930959915158</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.526020654249464</v>
+        <v>4.345162895400847</v>
       </c>
       <c r="C25">
-        <v>1.256557504242153</v>
+        <v>1.175662098009639</v>
       </c>
       <c r="D25">
-        <v>0.01830282226549684</v>
+        <v>0.04547296341512208</v>
       </c>
       <c r="E25">
-        <v>1.807742114258389</v>
+        <v>1.756397161168351</v>
       </c>
       <c r="F25">
-        <v>2.461309980844874</v>
+        <v>0.5352944310287526</v>
       </c>
       <c r="G25">
-        <v>0.00074280676543536</v>
+        <v>0.0007609863970889987</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.947654670131584</v>
+        <v>1.383668787425222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.576352370229188</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274794</v>
+        <v>1.000931929389992</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.06682399138679784</v>
       </c>
       <c r="E2">
-        <v>1.441922359377998</v>
+        <v>1.399864355909997</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.2932408734036258</v>
       </c>
       <c r="G2">
-        <v>0.0007686809951868507</v>
+        <v>0.1904135290156077</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01639006590631475</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1619758841354155</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.06355325182518889</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,42 +466,48 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.6941096359857539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293214</v>
+        <v>3.12248155556523</v>
       </c>
       <c r="C3">
-        <v>0.8738301893889968</v>
+        <v>0.8795569721254708</v>
       </c>
       <c r="D3">
-        <v>0.03462429524202548</v>
+        <v>0.05855141369686834</v>
       </c>
       <c r="E3">
-        <v>1.235854890260796</v>
+        <v>1.223823267901395</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.268544262242294</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087990035</v>
+        <v>0.173926500414872</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01256638071878891</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1597059478341478</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.07225357528316589</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,42 +519,48 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6540692518301512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389364</v>
+        <v>2.84348365213458</v>
       </c>
       <c r="C4">
-        <v>0.7993378641015738</v>
+        <v>0.8049642780964916</v>
       </c>
       <c r="D4">
-        <v>0.03195374705863685</v>
+        <v>0.05345631561861808</v>
       </c>
       <c r="E4">
-        <v>1.112018506115746</v>
+        <v>1.115951810711422</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.254110875639121</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430512226</v>
+        <v>0.1644552365826826</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01040243372296885</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1587267520974436</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.07813653803829368</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,42 +572,48 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.0464774109318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6317260372592557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378806</v>
+        <v>2.729687759135516</v>
       </c>
       <c r="C5">
-        <v>0.7690066449737571</v>
+        <v>0.7745448471711427</v>
       </c>
       <c r="D5">
-        <v>0.03086722398403907</v>
+        <v>0.05137584598264766</v>
       </c>
       <c r="E5">
-        <v>1.062125557461087</v>
+        <v>1.072028594873473</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.2484002147420128</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445050105</v>
+        <v>0.1607474402720825</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.009562658541953366</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1584265072349922</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.08066284490936848</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,42 +625,48 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6231476329705714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.710785279339746</v>
       </c>
       <c r="C6">
-        <v>0.7639712490242232</v>
+        <v>0.7694922332246961</v>
       </c>
       <c r="D6">
-        <v>0.03068689589297691</v>
+        <v>0.05103012721533418</v>
       </c>
       <c r="E6">
-        <v>1.05387249602056</v>
+        <v>1.064736751419957</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.2474619369075413</v>
       </c>
       <c r="G6">
-        <v>0.0007790812866859769</v>
+        <v>0.1601405894707568</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.009425635418719512</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1583824630524262</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.08108992346807398</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,42 +678,48 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.6217539493999311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127086</v>
+        <v>2.841949401205511</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678103</v>
+        <v>0.8045541278775374</v>
       </c>
       <c r="D7">
-        <v>0.03193908754555963</v>
+        <v>0.05342827486794732</v>
       </c>
       <c r="E7">
-        <v>1.111343450545817</v>
+        <v>1.115359329361169</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.2540331833275644</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703091108</v>
+        <v>0.1644046328288198</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01039094335275727</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1587223099534825</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.07817009570252687</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,42 +731,48 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.6316082613942484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237291</v>
+        <v>3.419910274594997</v>
       </c>
       <c r="C8">
-        <v>0.9534495003954078</v>
+        <v>0.9590926440747296</v>
       </c>
       <c r="D8">
-        <v>0.03748176335503928</v>
+        <v>0.06397471847938618</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.339107884202264</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042862</v>
+        <v>0.284566116672309</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717569716</v>
+        <v>0.1845860700272581</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01503094827811002</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1611038105262068</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.06643650949812052</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,42 +784,48 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.6798156205158961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864242</v>
+        <v>4.551878420986441</v>
       </c>
       <c r="C9">
-        <v>1.258541205769177</v>
+        <v>1.26187530566267</v>
       </c>
       <c r="D9">
-        <v>0.04845951825788575</v>
+        <v>0.08454422077662116</v>
       </c>
       <c r="E9">
-        <v>1.904628270821078</v>
+        <v>1.78056183305948</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.3508347246181103</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395386711</v>
+        <v>0.2299065146863057</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02578465778696426</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1693213920722201</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.04805135562994423</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,42 +837,48 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.47185203281046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.7938924287182942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806891031</v>
+        <v>5.383279404422581</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.480951481558975</v>
       </c>
       <c r="D10">
-        <v>0.05664530721050909</v>
+        <v>0.1008814953904533</v>
       </c>
       <c r="E10">
-        <v>2.322005527160314</v>
+        <v>2.004452670820953</v>
       </c>
       <c r="F10">
-        <v>0.678858643079522</v>
+        <v>0.3977106019286154</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425689126</v>
+        <v>0.2612575997408015</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0341479099069355</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1748412217086397</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.03685977187935929</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,42 +890,48 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.872447595844136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351581</v>
+        <v>5.752464130054989</v>
       </c>
       <c r="C11">
-        <v>1.58920392041847</v>
+        <v>1.549011572455925</v>
       </c>
       <c r="D11">
-        <v>0.06040982474318923</v>
+        <v>0.1199402269433847</v>
       </c>
       <c r="E11">
-        <v>2.519515414215093</v>
+        <v>1.307533055275542</v>
       </c>
       <c r="F11">
-        <v>0.7310970168232984</v>
+        <v>0.3641612700215759</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524360651</v>
+        <v>0.2241168566502978</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04909507406784996</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1522468126925673</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.02569406017226683</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,42 +943,48 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.7465609327796159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319018</v>
+        <v>5.888975715355514</v>
       </c>
       <c r="C12">
-        <v>1.628738126228541</v>
+        <v>1.56001835655303</v>
       </c>
       <c r="D12">
-        <v>0.06184261659727497</v>
+        <v>0.1333584267596706</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>0.8049952184876332</v>
       </c>
       <c r="F12">
-        <v>0.75146764550135</v>
+        <v>0.3270813402513113</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563991545</v>
+        <v>0.188665350680175</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08455913375654234</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1329010134908728</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.02060106516065696</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,42 +996,48 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.6309332823787486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065251903</v>
+        <v>5.852980200396416</v>
       </c>
       <c r="C13">
-        <v>1.620216287773133</v>
+        <v>1.527638864193818</v>
       </c>
       <c r="D13">
-        <v>0.06153369239733308</v>
+        <v>0.1430535465160716</v>
       </c>
       <c r="E13">
-        <v>2.579174270918713</v>
+        <v>0.4230316865514183</v>
       </c>
       <c r="F13">
-        <v>0.747053019755711</v>
+        <v>0.2850941363040249</v>
       </c>
       <c r="G13">
-        <v>0.0007429505858455573</v>
+        <v>0.1524124110741241</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1371064354420639</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1148509520155514</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.01953425138549778</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,42 +1049,48 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5162253271228394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.98199441198517</v>
+        <v>5.749771716033081</v>
       </c>
       <c r="C14">
-        <v>1.592453118870594</v>
+        <v>1.485498708855062</v>
       </c>
       <c r="D14">
-        <v>0.06052754737640242</v>
+        <v>0.1481590256553034</v>
       </c>
       <c r="E14">
-        <v>2.525749484437711</v>
+        <v>0.2287956058398137</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.2539694725339885</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843729558</v>
+        <v>0.1272837651619199</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1843406214986487</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1030423497333075</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.02083997426219009</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,42 +1102,48 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4381444376191581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981731011</v>
+        <v>5.687754969891103</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.466054100094141</v>
       </c>
       <c r="D15">
-        <v>0.05991224352290203</v>
+        <v>0.1484794892514998</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>0.1905170396152158</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.2452431033458069</v>
       </c>
       <c r="G15">
-        <v>0.000744721346750212</v>
+        <v>0.1207019738358071</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1961392119646348</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1003370084451589</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.02172219701502209</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,42 +1155,48 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.4184843424691849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.533634919427698</v>
+        <v>5.336158623809467</v>
       </c>
       <c r="C16">
-        <v>1.478438606472082</v>
+        <v>1.378923685387065</v>
       </c>
       <c r="D16">
-        <v>0.05640022152640967</v>
+        <v>0.1390637338417804</v>
       </c>
       <c r="E16">
-        <v>2.309269822762218</v>
+        <v>0.1865093761526744</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628565</v>
+        <v>0.2338899834970363</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130272879</v>
+        <v>0.1148450827808745</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1807371326037952</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1015433602594271</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.02582143384408075</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,42 +1208,48 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.4083773421332637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728375</v>
+        <v>5.121953701495841</v>
       </c>
       <c r="C17">
-        <v>1.419157990854501</v>
+        <v>1.334502587289137</v>
       </c>
       <c r="D17">
-        <v>0.05425707574407568</v>
+        <v>0.1291561061871676</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>0.2728430739711172</v>
       </c>
       <c r="F17">
-        <v>0.6467009445062075</v>
+        <v>0.2416319639306082</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215054918</v>
+        <v>0.1235016168484506</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1419553923922194</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1087172156465144</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.02832280197602444</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,42 +1261,48 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.4416274316102147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104124</v>
+        <v>5.001188400532328</v>
       </c>
       <c r="C18">
-        <v>1.385141676507715</v>
+        <v>1.321652906777899</v>
       </c>
       <c r="D18">
-        <v>0.05302813720697941</v>
+        <v>0.1179930550577808</v>
       </c>
       <c r="E18">
-        <v>2.135550865997402</v>
+        <v>0.5104868431844807</v>
       </c>
       <c r="F18">
-        <v>0.630456663852371</v>
+        <v>0.2672687853399083</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468003891</v>
+        <v>0.1468541838353019</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08995275647465917</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1222810021007348</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.0305663628150139</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,42 +1314,48 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5194862213739668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647571</v>
+        <v>4.964501139649542</v>
       </c>
       <c r="C19">
-        <v>1.373637281602214</v>
+        <v>1.335299708563696</v>
       </c>
       <c r="D19">
-        <v>0.05261264338034977</v>
+        <v>0.1070144088365907</v>
       </c>
       <c r="E19">
-        <v>2.114339516159731</v>
+        <v>0.9512415835460075</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.306886307043996</v>
       </c>
       <c r="G19">
-        <v>0.000752819980718879</v>
+        <v>0.1826687615265996</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04783947179917192</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.140896115214467</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.0338536059382859</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,42 +1367,48 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.6344116587011115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771519</v>
+        <v>5.164812890301505</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.423254119543174</v>
       </c>
       <c r="D20">
-        <v>0.05448482054286785</v>
+        <v>0.09664310183642044</v>
       </c>
       <c r="E20">
-        <v>2.210250434711114</v>
+        <v>1.941202215490463</v>
       </c>
       <c r="F20">
-        <v>0.649734100568125</v>
+        <v>0.3847791124496567</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798153807</v>
+        <v>0.252444414766515</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03180764788598989</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1730787705045884</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.03950605051602896</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,42 +1420,48 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.66335190917593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8499353941120091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798383</v>
+        <v>5.805335792708206</v>
       </c>
       <c r="C21">
-        <v>1.600603352844814</v>
+        <v>1.597189942350894</v>
       </c>
       <c r="D21">
-        <v>0.06082286766924483</v>
+        <v>0.1072058252821364</v>
       </c>
       <c r="E21">
-        <v>2.541403832657394</v>
+        <v>2.274308694021386</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503878</v>
+        <v>0.4326995008928378</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231597272</v>
+        <v>0.287844598568455</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.04001844929238718</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1829615619393365</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.03364729787374454</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,42 +1473,48 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9460889171629674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405741</v>
+        <v>6.224150600814596</v>
       </c>
       <c r="C22">
-        <v>1.71599369753892</v>
+        <v>1.709217398090004</v>
       </c>
       <c r="D22">
-        <v>0.06500821190233097</v>
+        <v>0.1147530322703147</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.440414567681472</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.4618342928692414</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033660567</v>
+        <v>0.3088576357552171</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.04528532151681874</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1884540694698131</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.03007433856349095</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,42 +1526,48 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.002394635086119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>6.000537257581982</v>
       </c>
       <c r="C23">
-        <v>1.65431225827507</v>
+        <v>1.649404860288314</v>
       </c>
       <c r="D23">
-        <v>0.06276995956054066</v>
+        <v>0.1107249151151564</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.351657497299655</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224892</v>
+        <v>0.4461723037852678</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873034522</v>
+        <v>0.2975388970072714</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.04244215115672034</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1854661576209224</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.03190823855041458</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,42 +1579,48 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9720058023732747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.155259563753589</v>
       </c>
       <c r="C24">
-        <v>1.422610659040743</v>
+        <v>1.423289536696075</v>
       </c>
       <c r="D24">
-        <v>0.05438184730274997</v>
+        <v>0.09546712611732744</v>
       </c>
       <c r="E24">
-        <v>2.204952766859634</v>
+        <v>2.017600804443191</v>
       </c>
       <c r="F24">
-        <v>0.6483618008776091</v>
+        <v>0.3892102654806422</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954646768</v>
+        <v>0.2568431175060297</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03234465346196602</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1753424130386563</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.04039756437714281</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,42 +1632,48 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8640012070944749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.345162895400847</v>
+        <v>4.245627476704612</v>
       </c>
       <c r="C25">
-        <v>1.175662098009639</v>
+        <v>1.1799504783271</v>
       </c>
       <c r="D25">
-        <v>0.04547296341512208</v>
+        <v>0.07898959012827333</v>
       </c>
       <c r="E25">
-        <v>1.756397161168351</v>
+        <v>1.660708142630455</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.3321353404837453</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889987</v>
+        <v>0.2169474456511011</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02266980238579031</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1666808661305836</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.05248172212341196</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425222</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7606831393047884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.576352370229188</v>
+        <v>3.56246908348578</v>
       </c>
       <c r="C2">
-        <v>1.000931929389992</v>
+        <v>1.011826586800566</v>
       </c>
       <c r="D2">
-        <v>0.06682399138679784</v>
+        <v>0.06787425383550527</v>
       </c>
       <c r="E2">
-        <v>1.399864355909997</v>
+        <v>1.392847996174183</v>
       </c>
       <c r="F2">
-        <v>0.2932408734036258</v>
+        <v>0.2940614596304982</v>
       </c>
       <c r="G2">
-        <v>0.1904135290156077</v>
+        <v>0.1795538375690668</v>
       </c>
       <c r="H2">
-        <v>0.01639006590631475</v>
+        <v>0.01557176661903037</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1619758841354155</v>
+        <v>0.2092590172211004</v>
       </c>
       <c r="K2">
-        <v>0.06355325182518889</v>
+        <v>0.06824520432579106</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07347359027566469</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.002990539975891604</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.6941096359857539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7020850316299772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.12248155556523</v>
+        <v>3.112268290714269</v>
       </c>
       <c r="C3">
-        <v>0.8795569721254708</v>
+        <v>0.8813608818077228</v>
       </c>
       <c r="D3">
-        <v>0.05855141369686834</v>
+        <v>0.0591193560520864</v>
       </c>
       <c r="E3">
-        <v>1.223823267901395</v>
+        <v>1.218266165905405</v>
       </c>
       <c r="F3">
-        <v>0.268544262242294</v>
+        <v>0.2714890840321331</v>
       </c>
       <c r="G3">
-        <v>0.173926500414872</v>
+        <v>0.1638508471394147</v>
       </c>
       <c r="H3">
-        <v>0.01256638071878891</v>
+        <v>0.01196575629823982</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1597059478341478</v>
+        <v>0.2069708237344727</v>
       </c>
       <c r="K3">
-        <v>0.07225357528316589</v>
+        <v>0.07683308853451631</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07910259641415252</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.004219271683257086</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6540692518301512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6678778193394237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.84348365213458</v>
+        <v>2.835375311593964</v>
       </c>
       <c r="C4">
-        <v>0.8049642780964916</v>
+        <v>0.8014210696997566</v>
       </c>
       <c r="D4">
-        <v>0.05345631561861808</v>
+        <v>0.05374069441352702</v>
       </c>
       <c r="E4">
-        <v>1.115951810711422</v>
+        <v>1.111243832530647</v>
       </c>
       <c r="F4">
-        <v>0.254110875639121</v>
+        <v>0.2582165908192167</v>
       </c>
       <c r="G4">
-        <v>0.1644552365826826</v>
+        <v>0.1548136461179652</v>
       </c>
       <c r="H4">
-        <v>0.01040243372296885</v>
+        <v>0.009921914531309301</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1587267520974436</v>
+        <v>0.2057868283267581</v>
       </c>
       <c r="K4">
-        <v>0.07813653803829368</v>
+        <v>0.08255469400001214</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08292280827750709</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.005463022191629696</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.6317260372592557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6486538083163822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.729687759135516</v>
+        <v>2.722405380501186</v>
       </c>
       <c r="C5">
-        <v>0.7745448471711427</v>
+        <v>0.7688827483602836</v>
       </c>
       <c r="D5">
-        <v>0.05137584598264766</v>
+        <v>0.05154786524377641</v>
       </c>
       <c r="E5">
-        <v>1.072028594873473</v>
+        <v>1.067656607591886</v>
       </c>
       <c r="F5">
-        <v>0.2484002147420128</v>
+        <v>0.2529447719527482</v>
       </c>
       <c r="G5">
-        <v>0.1607474402720825</v>
+        <v>0.1512705772184049</v>
       </c>
       <c r="H5">
-        <v>0.009562658541953366</v>
+        <v>0.009128027877027239</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1584265072349922</v>
+        <v>0.2053571422408993</v>
       </c>
       <c r="K5">
-        <v>0.08066284490936848</v>
+        <v>0.08499363520517544</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08457105945989873</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.006088629458351313</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.6231476329705714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6412362835601897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.710785279339746</v>
+        <v>2.703638285945487</v>
       </c>
       <c r="C6">
-        <v>0.7694922332246961</v>
+        <v>0.7634819561904465</v>
       </c>
       <c r="D6">
-        <v>0.05103012721533418</v>
+        <v>0.05118368310384369</v>
       </c>
       <c r="E6">
-        <v>1.064736751419957</v>
+        <v>1.060419998305946</v>
       </c>
       <c r="F6">
-        <v>0.2474619369075413</v>
+        <v>0.2520773473594176</v>
       </c>
       <c r="G6">
-        <v>0.1601405894707568</v>
+        <v>0.1506903372104347</v>
       </c>
       <c r="H6">
-        <v>0.009425635418719512</v>
+        <v>0.0089984498358993</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1583824630524262</v>
+        <v>0.2052889035767151</v>
       </c>
       <c r="K6">
-        <v>0.08108992346807398</v>
+        <v>0.08540494685632449</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08485027523387245</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.006199562874941389</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6217539493999311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6400288763173023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.841949401205511</v>
+        <v>2.8337902510753</v>
       </c>
       <c r="C7">
-        <v>0.8045541278775374</v>
+        <v>0.8003969626836351</v>
       </c>
       <c r="D7">
-        <v>0.05342827486794732</v>
+        <v>0.05384405364518585</v>
       </c>
       <c r="E7">
-        <v>1.115359329361169</v>
+        <v>1.110610255114764</v>
       </c>
       <c r="F7">
-        <v>0.2540331833275644</v>
+        <v>0.2574257620066334</v>
       </c>
       <c r="G7">
-        <v>0.1644046328288198</v>
+        <v>0.1570110794799717</v>
       </c>
       <c r="H7">
-        <v>0.01039094335275727</v>
+        <v>0.009906417769703331</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1587223099534825</v>
+        <v>0.202303219292574</v>
       </c>
       <c r="K7">
-        <v>0.07817009570252687</v>
+        <v>0.08246026526399852</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08284186583239261</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.005472146229858477</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.6316082613942484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.646363627393697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.419910274594997</v>
+        <v>3.407118707475774</v>
       </c>
       <c r="C8">
-        <v>0.9590926440747296</v>
+        <v>0.964831233334337</v>
       </c>
       <c r="D8">
-        <v>0.06397471847938618</v>
+        <v>0.06530480107167591</v>
       </c>
       <c r="E8">
-        <v>1.339107884202264</v>
+        <v>1.332454200754754</v>
       </c>
       <c r="F8">
-        <v>0.284566116672309</v>
+        <v>0.2837624669357197</v>
       </c>
       <c r="G8">
-        <v>0.1845860700272581</v>
+        <v>0.1815345573116005</v>
       </c>
       <c r="H8">
-        <v>0.01503094827811002</v>
+        <v>0.01427358442830629</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1611038105262068</v>
+        <v>0.1971276655934986</v>
       </c>
       <c r="K8">
-        <v>0.06643650949812052</v>
+        <v>0.07071701357058746</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07506970689512915</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0032637531280999</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.6798156205158961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6826657542233932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.551878420986441</v>
+        <v>4.528778056713861</v>
       </c>
       <c r="C9">
-        <v>1.26187530566267</v>
+        <v>1.290951978263138</v>
       </c>
       <c r="D9">
-        <v>0.08454422077662116</v>
+        <v>0.08728194204610418</v>
       </c>
       <c r="E9">
-        <v>1.78056183305948</v>
+        <v>1.769877813228192</v>
       </c>
       <c r="F9">
-        <v>0.3508347246181103</v>
+        <v>0.3431841836626148</v>
       </c>
       <c r="G9">
-        <v>0.2299065146863057</v>
+        <v>0.2267471416658182</v>
       </c>
       <c r="H9">
-        <v>0.02578465778696426</v>
+        <v>0.0243836323085298</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1693213920722201</v>
+        <v>0.2011033492471697</v>
       </c>
       <c r="K9">
-        <v>0.04805135562994423</v>
+        <v>0.05196405168068097</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06309994625646187</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.003005941701847092</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.7938924287182942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7773680286639717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.383279404422581</v>
+        <v>5.351132453002435</v>
       </c>
       <c r="C10">
-        <v>1.480951481558975</v>
+        <v>1.522793187970933</v>
       </c>
       <c r="D10">
-        <v>0.1008814953904533</v>
+        <v>0.1054698810967238</v>
       </c>
       <c r="E10">
-        <v>2.004452670820953</v>
+        <v>1.99052046684433</v>
       </c>
       <c r="F10">
-        <v>0.3977106019286154</v>
+        <v>0.3805529730063171</v>
       </c>
       <c r="G10">
-        <v>0.2612575997408015</v>
+        <v>0.2718080358907855</v>
       </c>
       <c r="H10">
-        <v>0.0341479099069355</v>
+        <v>0.03217337066993231</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1748412217086397</v>
+        <v>0.1843391966794599</v>
       </c>
       <c r="K10">
-        <v>0.03685977187935929</v>
+        <v>0.03959937284383575</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.05564655928463491</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.004945566217192443</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.872447595844136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8282405400465791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.752464130054989</v>
+        <v>5.716757927273079</v>
       </c>
       <c r="C11">
-        <v>1.549011572455925</v>
+        <v>1.574737195192597</v>
       </c>
       <c r="D11">
-        <v>0.1199402269433847</v>
+        <v>0.1263620481677634</v>
       </c>
       <c r="E11">
-        <v>1.307533055275542</v>
+        <v>1.294975858053945</v>
       </c>
       <c r="F11">
-        <v>0.3641612700215759</v>
+        <v>0.3410608961987336</v>
       </c>
       <c r="G11">
-        <v>0.2241168566502978</v>
+        <v>0.2654682282192908</v>
       </c>
       <c r="H11">
-        <v>0.04909507406784996</v>
+        <v>0.04709352060748984</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1522468126925673</v>
+        <v>0.1333905875959687</v>
       </c>
       <c r="K11">
-        <v>0.02569406017226683</v>
+        <v>0.02952860132749668</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05153350675964996</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.002999596057279064</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7465609327796159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.6873476546990105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.888975715355514</v>
+        <v>5.852359517959997</v>
       </c>
       <c r="C12">
-        <v>1.56001835655303</v>
+        <v>1.571460908689346</v>
       </c>
       <c r="D12">
-        <v>0.1333584267596706</v>
+        <v>0.1404419950434601</v>
       </c>
       <c r="E12">
-        <v>0.8049952184876332</v>
+        <v>0.7942331247007246</v>
       </c>
       <c r="F12">
-        <v>0.3270813402513113</v>
+        <v>0.3038148363549951</v>
       </c>
       <c r="G12">
-        <v>0.188665350680175</v>
+        <v>0.2424184404091321</v>
       </c>
       <c r="H12">
-        <v>0.08455913375654234</v>
+        <v>0.08263855390895714</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1329010134908728</v>
+        <v>0.1097615649085846</v>
       </c>
       <c r="K12">
-        <v>0.02060106516065696</v>
+        <v>0.02592650559703397</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05063497099094327</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.001592325161971608</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.6309332823787486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.5736383201816579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.852980200396416</v>
+        <v>5.817627456917421</v>
       </c>
       <c r="C13">
-        <v>1.527638864193818</v>
+        <v>1.527134419647496</v>
       </c>
       <c r="D13">
-        <v>0.1430535465160716</v>
+        <v>0.1493552867072054</v>
       </c>
       <c r="E13">
-        <v>0.4230316865514183</v>
+        <v>0.4143058286978132</v>
       </c>
       <c r="F13">
-        <v>0.2850941363040249</v>
+        <v>0.267100212872613</v>
       </c>
       <c r="G13">
-        <v>0.1524124110741241</v>
+        <v>0.2010589200855719</v>
       </c>
       <c r="H13">
-        <v>0.1371064354420639</v>
+        <v>0.1353539050575847</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1148509520155514</v>
+        <v>0.102655724512914</v>
       </c>
       <c r="K13">
-        <v>0.01953425138549778</v>
+        <v>0.02619135187240418</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05122484342881339</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0006227372323026614</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.5162253271228394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4755975263622361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.749771716033081</v>
+        <v>5.716220180308255</v>
       </c>
       <c r="C14">
-        <v>1.485498708855062</v>
+        <v>1.477682299961657</v>
       </c>
       <c r="D14">
-        <v>0.1481590256553034</v>
+        <v>0.1532132284024357</v>
       </c>
       <c r="E14">
-        <v>0.2287956058398137</v>
+        <v>0.2214659478378067</v>
       </c>
       <c r="F14">
-        <v>0.2539694725339885</v>
+        <v>0.2416144942186023</v>
       </c>
       <c r="G14">
-        <v>0.1272837651619199</v>
+        <v>0.1661480731227982</v>
       </c>
       <c r="H14">
-        <v>0.1843406214986487</v>
+        <v>0.1827323260125269</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1030423497333075</v>
+        <v>0.1029974513572611</v>
       </c>
       <c r="K14">
-        <v>0.02083997426219009</v>
+        <v>0.02799598264563086</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05208659427111773</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0002880941288876115</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4381444376191581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4137931239587544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.687754969891103</v>
+        <v>5.655100378896464</v>
       </c>
       <c r="C15">
-        <v>1.466054100094141</v>
+        <v>1.456864169719438</v>
       </c>
       <c r="D15">
-        <v>0.1484794892514998</v>
+        <v>0.1529404817307523</v>
       </c>
       <c r="E15">
-        <v>0.1905170396152158</v>
+        <v>0.1835771836686462</v>
       </c>
       <c r="F15">
-        <v>0.2452431033458069</v>
+        <v>0.2351364627304449</v>
       </c>
       <c r="G15">
-        <v>0.1207019738358071</v>
+        <v>0.1547667001592217</v>
       </c>
       <c r="H15">
-        <v>0.1961392119646348</v>
+        <v>0.1945884725503646</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1003370084451589</v>
+        <v>0.1053252571514562</v>
       </c>
       <c r="K15">
-        <v>0.02172219701502209</v>
+        <v>0.02888464428001036</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05239828625658571</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0002344867842080101</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.4184843424691849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4002540609021565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.336158623809467</v>
+        <v>5.307839595539178</v>
       </c>
       <c r="C16">
-        <v>1.378923685387065</v>
+        <v>1.37268235083792</v>
       </c>
       <c r="D16">
-        <v>0.1390637338417804</v>
+        <v>0.1412385100790488</v>
       </c>
       <c r="E16">
-        <v>0.1865093761526744</v>
+        <v>0.180286753731739</v>
       </c>
       <c r="F16">
-        <v>0.2338899834970363</v>
+        <v>0.2315655025246954</v>
       </c>
       <c r="G16">
-        <v>0.1148450827808745</v>
+        <v>0.128656853075185</v>
       </c>
       <c r="H16">
-        <v>0.1807371326037952</v>
+        <v>0.1794244870356039</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1015433602594271</v>
+        <v>0.1275747627011725</v>
       </c>
       <c r="K16">
-        <v>0.02582143384408075</v>
+        <v>0.03258677054643977</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05344731588418261</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.189787376546183E-05</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.4083773421332637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.4103405545065471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.121953701495841</v>
+        <v>5.095876507150535</v>
       </c>
       <c r="C17">
-        <v>1.334502587289137</v>
+        <v>1.333367514892359</v>
       </c>
       <c r="D17">
-        <v>0.1291561061871676</v>
+        <v>0.1306068529639219</v>
       </c>
       <c r="E17">
-        <v>0.2728430739711172</v>
+        <v>0.2665298674539258</v>
       </c>
       <c r="F17">
-        <v>0.2416319639306082</v>
+        <v>0.2417704923288895</v>
       </c>
       <c r="G17">
-        <v>0.1235016168484506</v>
+        <v>0.1284917584636531</v>
       </c>
       <c r="H17">
-        <v>0.1419553923922194</v>
+        <v>0.1407447803164672</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1087172156465144</v>
+        <v>0.1447368574909476</v>
       </c>
       <c r="K17">
-        <v>0.02832280197602444</v>
+        <v>0.0349351499646875</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05430437096585328</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.671260828717494E-06</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.4416274316102147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.4498721260257099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.001188400532328</v>
+        <v>4.975964566481139</v>
       </c>
       <c r="C18">
-        <v>1.321652906777899</v>
+        <v>1.32943565851167</v>
       </c>
       <c r="D18">
-        <v>0.1179930550577808</v>
+        <v>0.1195403030253885</v>
       </c>
       <c r="E18">
-        <v>0.5104868431844807</v>
+        <v>0.5033311438748882</v>
       </c>
       <c r="F18">
-        <v>0.2672687853399083</v>
+        <v>0.2668750766545216</v>
       </c>
       <c r="G18">
-        <v>0.1468541838353019</v>
+        <v>0.1467351120822045</v>
       </c>
       <c r="H18">
-        <v>0.08995275647465917</v>
+        <v>0.08873704758815393</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1222810021007348</v>
+        <v>0.1623474908635814</v>
       </c>
       <c r="K18">
-        <v>0.0305663628150139</v>
+        <v>0.03699372809786083</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05530891007438665</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0002397223428169948</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5194862213739668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5259764531377442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.964501139649542</v>
+        <v>4.938912261115775</v>
       </c>
       <c r="C19">
-        <v>1.335299708563696</v>
+        <v>1.355072571539495</v>
       </c>
       <c r="D19">
-        <v>0.1070144088365907</v>
+        <v>0.10908422338035</v>
       </c>
       <c r="E19">
-        <v>0.9512415835460075</v>
+        <v>0.9424846433117153</v>
       </c>
       <c r="F19">
-        <v>0.306886307043996</v>
+        <v>0.3038426728956054</v>
       </c>
       <c r="G19">
-        <v>0.1826687615265996</v>
+        <v>0.1789801551679062</v>
       </c>
       <c r="H19">
-        <v>0.04783947179917192</v>
+        <v>0.04650655904445244</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.140896115214467</v>
+        <v>0.1811349115280692</v>
       </c>
       <c r="K19">
-        <v>0.0338536059382859</v>
+        <v>0.03966689449862848</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.05662992759578023</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.001157637497277264</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6344116587011115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6329328657717213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.164812890301505</v>
+        <v>5.135389490337275</v>
       </c>
       <c r="C20">
-        <v>1.423254119543174</v>
+        <v>1.463833122709104</v>
       </c>
       <c r="D20">
-        <v>0.09664310183642044</v>
+        <v>0.1002285431493704</v>
       </c>
       <c r="E20">
-        <v>1.941202215490463</v>
+        <v>1.928324913688712</v>
       </c>
       <c r="F20">
-        <v>0.3847791124496567</v>
+        <v>0.3727782633861381</v>
       </c>
       <c r="G20">
-        <v>0.252444414766515</v>
+        <v>0.2510556212774375</v>
       </c>
       <c r="H20">
-        <v>0.03180764788598989</v>
+        <v>0.0300156123077242</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1730787705045884</v>
+        <v>0.1997363838224899</v>
       </c>
       <c r="K20">
-        <v>0.03950605051602896</v>
+        <v>0.04294699230973542</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.05756311161690109</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.004399436483693897</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8499353941120091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.82097381935111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.805335792708206</v>
+        <v>5.76692251538401</v>
       </c>
       <c r="C21">
-        <v>1.597189942350894</v>
+        <v>1.638807037037623</v>
       </c>
       <c r="D21">
-        <v>0.1072058252821364</v>
+        <v>0.1150587809254802</v>
       </c>
       <c r="E21">
-        <v>2.274308694021386</v>
+        <v>2.257320143347826</v>
       </c>
       <c r="F21">
-        <v>0.4326995008928378</v>
+        <v>0.3984456081420973</v>
       </c>
       <c r="G21">
-        <v>0.287844598568455</v>
+        <v>0.3434146604259922</v>
       </c>
       <c r="H21">
-        <v>0.04001844929238718</v>
+        <v>0.03756104452870579</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1829615619393365</v>
+        <v>0.1396483520541665</v>
       </c>
       <c r="K21">
-        <v>0.03364729787374454</v>
+        <v>0.03378330302114652</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05234106083587808</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.006470464195556858</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9460889171629674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8508245280189328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.224150600814596</v>
+        <v>6.179522646000805</v>
       </c>
       <c r="C22">
-        <v>1.709217398090004</v>
+        <v>1.749547277377474</v>
       </c>
       <c r="D22">
-        <v>0.1147530322703147</v>
+        <v>0.1256903222845125</v>
       </c>
       <c r="E22">
-        <v>2.440414567681472</v>
+        <v>2.42077633513486</v>
       </c>
       <c r="F22">
-        <v>0.4618342928692414</v>
+        <v>0.4119275191596969</v>
       </c>
       <c r="G22">
-        <v>0.3088576357552171</v>
+        <v>0.4093882200537848</v>
       </c>
       <c r="H22">
-        <v>0.04528532151681874</v>
+        <v>0.04237324489174021</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1884540694698131</v>
+        <v>0.1064934582721584</v>
       </c>
       <c r="K22">
-        <v>0.03007433856349095</v>
+        <v>0.02806835753920911</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.04935473952969355</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.00802768479774052</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.002394635086119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.860810426096009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.000537257581982</v>
+        <v>5.959419328568856</v>
       </c>
       <c r="C23">
-        <v>1.649404860288314</v>
+        <v>1.692091301325092</v>
       </c>
       <c r="D23">
-        <v>0.1107249151151564</v>
+        <v>0.1196170102333269</v>
       </c>
       <c r="E23">
-        <v>2.351657497299655</v>
+        <v>2.333552553021448</v>
       </c>
       <c r="F23">
-        <v>0.4461723037852678</v>
+        <v>0.4065553777959892</v>
       </c>
       <c r="G23">
-        <v>0.2975388970072714</v>
+        <v>0.3666867205720621</v>
       </c>
       <c r="H23">
-        <v>0.04244215115672034</v>
+        <v>0.03979173405686476</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1854661576209224</v>
+        <v>0.1286324323351593</v>
       </c>
       <c r="K23">
-        <v>0.03190823855041458</v>
+        <v>0.0312727611137058</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05094881153514952</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.007282015120932961</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9720058023732747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8608724111341246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.155259563753589</v>
+        <v>5.125821630750352</v>
       </c>
       <c r="C24">
-        <v>1.423289536696075</v>
+        <v>1.46516126421119</v>
       </c>
       <c r="D24">
-        <v>0.09546712611732744</v>
+        <v>0.09906487592844826</v>
       </c>
       <c r="E24">
-        <v>2.017600804443191</v>
+        <v>2.004485735402042</v>
       </c>
       <c r="F24">
-        <v>0.3892102654806422</v>
+        <v>0.3769710782696265</v>
       </c>
       <c r="G24">
-        <v>0.2568431175060297</v>
+        <v>0.2546788350078586</v>
       </c>
       <c r="H24">
-        <v>0.03234465346196602</v>
+        <v>0.03053196248908119</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1753424130386563</v>
+        <v>0.2023938977427235</v>
       </c>
       <c r="K24">
-        <v>0.04039756437714281</v>
+        <v>0.0436719545644646</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.05786963757038333</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.004652172941565169</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8640012070944749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8341938784975298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.245627476704612</v>
+        <v>4.225601111522224</v>
       </c>
       <c r="C25">
-        <v>1.1799504783271</v>
+        <v>1.203389126033869</v>
       </c>
       <c r="D25">
-        <v>0.07898959012827333</v>
+        <v>0.08114008457840072</v>
       </c>
       <c r="E25">
-        <v>1.660708142630455</v>
+        <v>1.65124172532613</v>
       </c>
       <c r="F25">
-        <v>0.3321353404837453</v>
+        <v>0.3275072554594232</v>
       </c>
       <c r="G25">
-        <v>0.2169474456511011</v>
+        <v>0.2105906254291554</v>
       </c>
       <c r="H25">
-        <v>0.02266980238579031</v>
+        <v>0.02146714550453588</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1666808661305836</v>
+        <v>0.2045543345357501</v>
       </c>
       <c r="K25">
-        <v>0.05248172212341196</v>
+        <v>0.05674714826463312</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06610927250970633</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.002652817595312218</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7606831393047884</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7529628572998064</v>
       </c>
     </row>
   </sheetData>
